--- a/MyMojioWebsite/src/com/mojio/xls/Home_Page.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/Home_Page.xlsx
@@ -212,7 +212,7 @@
     <t>Close Browser</t>
   </si>
   <si>
-    <t>closeBroswer</t>
+    <t>closebrowser</t>
   </si>
   <si>
     <t>Click on facebook image on header</t>
@@ -886,7 +886,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C27" activeCellId="0" pane="topLeft" sqref="C27"/>
+      <selection activeCell="C27" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I44" activeCellId="0" pane="topLeft" sqref="I44"/>
+      <selection activeCell="I44" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
+      <selection activeCell="B9" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
+      <selection activeCell="B5" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D11" activeCellId="0" pane="topLeft" sqref="D11"/>
+      <selection activeCell="D11" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1426,7 +1426,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A23" activeCellId="0" pane="topLeft" sqref="A23"/>
+      <selection activeCell="A23" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1560,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L15" activeCellId="0" pane="topLeft" sqref="L15"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A84" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L15" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4158,7 +4158,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4203,7 +4203,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4248,7 +4248,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4292,7 +4292,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="A6" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4337,7 +4337,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4381,7 +4381,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A14" activeCellId="0" pane="topLeft" sqref="A14"/>
+      <selection activeCell="A14" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4425,7 +4425,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
+      <selection activeCell="B1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4470,7 +4470,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E5" activeCellId="0" pane="topLeft" sqref="E5"/>
+      <selection activeCell="E5" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4515,7 +4515,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4559,7 +4559,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4618,7 +4618,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A44" activeCellId="0" pane="topLeft" sqref="A44"/>
+      <selection activeCell="A44" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4663,7 +4663,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
+      <selection activeCell="C11" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4721,7 +4721,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4766,7 +4766,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4811,7 +4811,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4856,7 +4856,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4900,7 +4900,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
+      <selection activeCell="A8" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4945,7 +4945,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A14" activeCellId="0" pane="topLeft" sqref="A14"/>
+      <selection activeCell="A14" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4989,7 +4989,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="21" pane="topLeft" sqref="D8 D15 D22 D29 D35 D41 D47 D52 D58 D63 D69 D75 D81 D86 D92 D100 D108 D116 D124 D131 D138 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
